--- a/data/trans_orig/P53-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P53-Provincia-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5818</v>
+        <v>6053</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06801066945768523</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2137059191759762</v>
+        <v>0.2223386396956566</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4356</v>
+        <v>5577</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04260573567352474</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1829389713697966</v>
+        <v>0.2342077918717705</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>2866</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7663</v>
+        <v>7463</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05615663365759505</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01780560590404299</v>
+        <v>0.01754865323314269</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1501438640374981</v>
+        <v>0.1462353862287412</v>
       </c>
     </row>
     <row r="5">
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5114</v>
+        <v>5437</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04280332992199682</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2147457338201082</v>
+        <v>0.2283188752614855</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4264</v>
+        <v>5232</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01997219160534758</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08355362911392536</v>
+        <v>0.1025119627744737</v>
       </c>
     </row>
     <row r="7">
@@ -971,7 +971,7 @@
         <v>25371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21404</v>
+        <v>21169</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>27222</v>
@@ -980,7 +980,7 @@
         <v>0.9319893305423148</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7862940808240237</v>
+        <v>0.7776613603043447</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>21779</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17862</v>
+        <v>17707</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>23813</v>
@@ -1001,7 +1001,7 @@
         <v>0.9145909344044785</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7500740581312965</v>
+        <v>0.7435803666942012</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>47150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>42088</v>
+        <v>42584</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50062</v>
+        <v>50078</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9238711747370574</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8246829796809838</v>
+        <v>0.8344122942830603</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9809339051606216</v>
+        <v>0.9812513940676402</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5208</v>
+        <v>6441</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01536025092137618</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06224611240824914</v>
+        <v>0.07697892988767328</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6773</v>
+        <v>6777</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008567706751148768</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04515127815690026</v>
+        <v>0.04517545178066484</v>
       </c>
     </row>
     <row r="12">
@@ -1274,19 +1274,19 @@
         <v>2907</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8183</v>
+        <v>7734</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04381650928739461</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01353794058178526</v>
+        <v>0.01326555385389749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1233520055703359</v>
+        <v>0.1165878965333226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7822</v>
+        <v>6853</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02629490980009207</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09348404644604232</v>
+        <v>0.08190356628169794</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1316,19 +1316,19 @@
         <v>5107</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1881</v>
+        <v>1848</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11335</v>
+        <v>11397</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03404323624734476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01254191602308868</v>
+        <v>0.01231940657414079</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07556088440436065</v>
+        <v>0.07597486253235174</v>
       </c>
     </row>
     <row r="14">
@@ -1345,19 +1345,19 @@
         <v>63430</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58154</v>
+        <v>58603</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65439</v>
+        <v>65457</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9561834907126054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8766479944296641</v>
+        <v>0.8834121034666774</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9864620594182147</v>
+        <v>0.9867344461461025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -1366,19 +1366,19 @@
         <v>80188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74710</v>
+        <v>74705</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82679</v>
+        <v>82705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9583448392785318</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8928856080468922</v>
+        <v>0.8928225060066939</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9881213218857261</v>
+        <v>0.988426557603266</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -1387,19 +1387,19 @@
         <v>143617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>137068</v>
+        <v>137287</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>147649</v>
+        <v>147828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9573890570015064</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9137336361795458</v>
+        <v>0.9151949766060214</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9842651875058499</v>
+        <v>0.9854607490135904</v>
       </c>
     </row>
     <row r="15">
@@ -1491,19 +1491,19 @@
         <v>5176</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2067</v>
+        <v>2046</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10374</v>
+        <v>10410</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.144436841020687</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05767293869727859</v>
+        <v>0.05710862030414642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2895063194814054</v>
+        <v>0.2904931822139002</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         <v>5176</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2026</v>
+        <v>2044</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10456</v>
+        <v>11339</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07141339783162715</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02795491066873078</v>
+        <v>0.02819943424109258</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1442605808183924</v>
+        <v>0.1564445249405397</v>
       </c>
     </row>
     <row r="17">
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5474</v>
+        <v>4124</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02770380873142819</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1527552233393905</v>
+        <v>0.1150815504934994</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5621</v>
+        <v>4978</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01369749643102086</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07755901946995432</v>
+        <v>0.06867893631812609</v>
       </c>
     </row>
     <row r="18">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6256</v>
+        <v>7017</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05596673668967905</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1745648109299942</v>
+        <v>0.1958070546629432</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7036</v>
+        <v>6057</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02767143620917002</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09707587761717469</v>
+        <v>0.08357589427516716</v>
       </c>
     </row>
     <row r="20">
@@ -1727,19 +1727,19 @@
         <v>27661</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21574</v>
+        <v>22089</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31744</v>
+        <v>31829</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7718926135582057</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6020365803353795</v>
+        <v>0.6164137002318815</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8858300563693027</v>
+        <v>0.8882050073445715</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -1761,19 +1761,19 @@
         <v>64303</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>57990</v>
+        <v>56993</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>68454</v>
+        <v>68348</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8872176695281819</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8001092432107578</v>
+        <v>0.7863606077480606</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9444957709901255</v>
+        <v>0.9430279198523484</v>
       </c>
     </row>
     <row r="21">
@@ -1865,19 +1865,19 @@
         <v>3975</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9088</v>
+        <v>8433</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1027873675270206</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02549351893293914</v>
+        <v>0.02560803865781707</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2349650365565042</v>
+        <v>0.2180411828035506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4889</v>
+        <v>6078</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02239368753765225</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.114846897927898</v>
+        <v>0.1427883683192169</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -1907,19 +1907,19 @@
         <v>4929</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1899</v>
+        <v>1961</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10795</v>
+        <v>10856</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06066534752884424</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02337265829921909</v>
+        <v>0.02413464145978702</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1328767956463312</v>
+        <v>0.1336217738660307</v>
       </c>
     </row>
     <row r="23">
@@ -1999,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4378</v>
+        <v>4782</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02239368753765225</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1028577027683936</v>
+        <v>0.1123360793923623</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4524</v>
+        <v>4763</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01173310332875224</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05568216581547323</v>
+        <v>0.0586276356778059</v>
       </c>
     </row>
     <row r="25">
@@ -2093,19 +2093,19 @@
         <v>34701</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29588</v>
+        <v>30243</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37690</v>
+        <v>37686</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8972126324729794</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7650349634434958</v>
+        <v>0.7819588171964496</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9745064810670608</v>
+        <v>0.974391961342183</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>42</v>
@@ -2114,7 +2114,7 @@
         <v>40661</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35833</v>
+        <v>36472</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>42567</v>
@@ -2123,7 +2123,7 @@
         <v>0.9552126249246955</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8418083547668325</v>
+        <v>0.856824683473924</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2135,19 +2135,19 @@
         <v>75361</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>69453</v>
+        <v>69291</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>79250</v>
+        <v>78438</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9276015491424036</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8548778793170825</v>
+        <v>0.8528914405638597</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9754673868282417</v>
+        <v>0.9654785947150357</v>
       </c>
     </row>
     <row r="27">
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5145</v>
+        <v>4107</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04714515820206964</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2594036737207019</v>
+        <v>0.2070602095239811</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5013</v>
+        <v>5210</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0217159355573966</v>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1164284289164614</v>
+        <v>0.1210006488549014</v>
       </c>
     </row>
     <row r="31">
@@ -2443,7 +2443,7 @@
         <v>18899</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14689</v>
+        <v>15727</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>19834</v>
@@ -2452,7 +2452,7 @@
         <v>0.9528548417979303</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7405963262792979</v>
+        <v>0.7929397904760213</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -2477,7 +2477,7 @@
         <v>42125</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>38047</v>
+        <v>37850</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>43060</v>
@@ -2486,7 +2486,7 @@
         <v>0.9782840644426034</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8835715710835401</v>
+        <v>0.8789993511450997</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4624</v>
+        <v>4597</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03401678861518589</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1719771640008541</v>
+        <v>0.1709512356921291</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5203</v>
+        <v>5160</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.05489197039582183</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2778111870549007</v>
+        <v>0.2755541950544219</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6130</v>
+        <v>5988</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04258701536996935</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.134389673601083</v>
+        <v>0.1312817884804017</v>
       </c>
     </row>
     <row r="35">
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5852</v>
+        <v>5847</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03629136030927532</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2176605870264293</v>
+        <v>0.2174414048403868</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4031</v>
+        <v>4038</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02139207989301814</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08836742517865855</v>
+        <v>0.08851891257443822</v>
       </c>
     </row>
     <row r="38">
@@ -2809,7 +2809,7 @@
         <v>24998</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>20278</v>
+        <v>20249</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>26888</v>
@@ -2818,7 +2818,7 @@
         <v>0.9296918510755388</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7541633559115483</v>
+        <v>0.7531021709599791</v>
       </c>
       <c r="I38" s="6" t="n">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>17699</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>13524</v>
+        <v>13567</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>18727</v>
@@ -2839,7 +2839,7 @@
         <v>0.9451080296041782</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7221888129450993</v>
+        <v>0.7244458049455783</v>
       </c>
       <c r="P38" s="6" t="n">
         <v>1</v>
@@ -2851,19 +2851,19 @@
         <v>42697</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>38552</v>
+        <v>37759</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>44720</v>
+        <v>44708</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9360209047370125</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8451515987578243</v>
+        <v>0.8277674400537453</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.980382205052906</v>
+        <v>0.9801062650161342</v>
       </c>
     </row>
     <row r="39">
@@ -2955,19 +2955,19 @@
         <v>2946</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>949</v>
+        <v>924</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7894</v>
+        <v>7862</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03358263279214984</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01082385167632693</v>
+        <v>0.01053407351628549</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08999709568167408</v>
+        <v>0.08963423393469656</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3889</v>
+        <v>4024</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01098105145355627</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05568650103357985</v>
+        <v>0.05762855999146638</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -2997,19 +2997,19 @@
         <v>3712</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>9587</v>
+        <v>9425</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02356467095146706</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00623836518119896</v>
+        <v>0.006254995272195277</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06085026098244213</v>
+        <v>0.05982673229390747</v>
       </c>
     </row>
     <row r="41">
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5292</v>
+        <v>5574</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01162622530396788</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.06033635893990334</v>
+        <v>0.06354624414641612</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5036</v>
+        <v>5159</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.006472998204435275</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03196411692379898</v>
+        <v>0.03274327562999303</v>
       </c>
     </row>
     <row r="43">
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7583</v>
+        <v>7229</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02690085743202255</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.08645345142016045</v>
+        <v>0.08241508191596753</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>4247</v>
+        <v>4563</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01283845631312626</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06081667667447235</v>
+        <v>0.06534260870467297</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>3</v>
@@ -3178,19 +3178,19 @@
         <v>3256</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>8414</v>
+        <v>9239</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02066781578387369</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.005629148378910744</v>
+        <v>0.00564294516056058</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05340778729694184</v>
+        <v>0.0586447510049676</v>
       </c>
     </row>
     <row r="44">
@@ -3207,19 +3207,19 @@
         <v>81389</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>74703</v>
+        <v>74779</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>84885</v>
+        <v>84900</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9278902844718597</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.851661440399491</v>
+        <v>0.8525282405600713</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9677474613831404</v>
+        <v>0.9679215693505532</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>65</v>
@@ -3228,7 +3228,7 @@
         <v>68167</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>64719</v>
+        <v>64536</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>69830</v>
@@ -3237,7 +3237,7 @@
         <v>0.9761804922333175</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9268100474178903</v>
+        <v>0.924188479234676</v>
       </c>
       <c r="P44" s="6" t="n">
         <v>1</v>
@@ -3249,19 +3249,19 @@
         <v>149556</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>141879</v>
+        <v>142480</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>153922</v>
+        <v>153847</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.949294515060224</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9005686067274346</v>
+        <v>0.9043846440612447</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.977009028212436</v>
+        <v>0.9765340428856919</v>
       </c>
     </row>
     <row r="45">
@@ -3353,19 +3353,19 @@
         <v>3378</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>9378</v>
+        <v>10126</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02695614262970204</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.007039430117715547</v>
+        <v>0.006950380448679709</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07482883669582721</v>
+        <v>0.08079173854567519</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>0</v>
@@ -3387,19 +3387,19 @@
         <v>3378</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>9675</v>
+        <v>10203</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01550534578536979</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.003998562326975197</v>
+        <v>0.004013769985786332</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04440245025714555</v>
+        <v>0.04682732661474287</v>
       </c>
     </row>
     <row r="47">
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3767</v>
+        <v>4761</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.007253538118184557</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03005713941989329</v>
+        <v>0.03798980196904526</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>0</v>
@@ -3453,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>4539</v>
+        <v>4606</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0041722815550726</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02083336682555033</v>
+        <v>0.0211385732282216</v>
       </c>
     </row>
     <row r="48">
@@ -3479,19 +3479,19 @@
         <v>2858</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8123</v>
+        <v>8557</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02280392923294441</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.006871876619652303</v>
+        <v>0.007052534771225624</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.06481449104928708</v>
+        <v>0.06827580808142458</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>4544</v>
+        <v>5533</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01099502458852084</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04909340364030725</v>
+        <v>0.05978500990439179</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>4</v>
@@ -3521,19 +3521,19 @@
         <v>3876</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>9569</v>
+        <v>9870</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01778758212813313</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.00472005321686355</v>
+        <v>0.004654666325897819</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04391714510982055</v>
+        <v>0.04529970055715968</v>
       </c>
     </row>
     <row r="49">
@@ -3550,19 +3550,19 @@
         <v>4910</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1638</v>
+        <v>1963</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>10327</v>
+        <v>11659</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.03917530591044466</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01306905534474697</v>
+        <v>0.01566492840006599</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08239550465825711</v>
+        <v>0.09303095595254633</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>3</v>
@@ -3571,19 +3571,19 @@
         <v>2972</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>7182</v>
+        <v>7914</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.03210868098706007</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.008451410218057296</v>
+        <v>0.0085978005329346</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.07759403217887327</v>
+        <v>0.08549964898859524</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>8</v>
@@ -3592,19 +3592,19 @@
         <v>7882</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>3342</v>
+        <v>3771</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>14402</v>
+        <v>14550</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.0361734488760628</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01533960087203144</v>
+        <v>0.0173053416392952</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.06610080613283635</v>
+        <v>0.06677843483872709</v>
       </c>
     </row>
     <row r="50">
@@ -3621,19 +3621,19 @@
         <v>113274</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>105340</v>
+        <v>105277</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>118841</v>
+        <v>118739</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9038110841087243</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8405049112470148</v>
+        <v>0.8400086211618274</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9482322842366778</v>
+        <v>0.9474144490143118</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>84</v>
@@ -3642,19 +3642,19 @@
         <v>88566</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>83390</v>
+        <v>83268</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>91556</v>
+        <v>91537</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9568962944244191</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.9009651680235198</v>
+        <v>0.8996502494462645</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9891975707921903</v>
+        <v>0.988985883750743</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>193</v>
@@ -3663,19 +3663,19 @@
         <v>201841</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>193014</v>
+        <v>193991</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>208184</v>
+        <v>208323</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9263613416553617</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8858471914113906</v>
+        <v>0.8903324367619868</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9554722613967142</v>
+        <v>0.956110624899685</v>
       </c>
     </row>
     <row r="51">
@@ -3767,19 +3767,19 @@
         <v>18241</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>10807</v>
+        <v>10944</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>28791</v>
+        <v>28383</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.04263634958417344</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.02526069039352937</v>
+        <v>0.02557923136816263</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.06729423100999141</v>
+        <v>0.06634166429514061</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>4</v>
@@ -3788,19 +3788,19 @@
         <v>3763</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>960</v>
+        <v>1003</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>9340</v>
+        <v>9355</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.009622083475346505</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.00245621816601647</v>
+        <v>0.002564898452185522</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.02388568651877737</v>
+        <v>0.02392415679161994</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>22</v>
@@ -3809,19 +3809,19 @@
         <v>22004</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>14391</v>
+        <v>13794</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>32192</v>
+        <v>32306</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02687103572494355</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01757402682049274</v>
+        <v>0.01684525971861275</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.03931233751170835</v>
+        <v>0.03945248900228519</v>
       </c>
     </row>
     <row r="53">
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>6527</v>
+        <v>6485</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.004445257510648113</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01525644763463351</v>
+        <v>0.01515869927901302</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>1</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>6465</v>
+        <v>7200</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.003286756448569371</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01653215873805865</v>
+        <v>0.01841190937716718</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>3</v>
@@ -3880,19 +3880,19 @@
         <v>3187</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>8500</v>
+        <v>8257</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.003892038099690518</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.001111742739492658</v>
+        <v>0.001109908778836072</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01038014694765667</v>
+        <v>0.01008284666779719</v>
       </c>
     </row>
     <row r="54">
@@ -3909,19 +3909,19 @@
         <v>4813</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1819</v>
+        <v>1889</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>11390</v>
+        <v>10354</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01124940519024679</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.004250748284455069</v>
+        <v>0.004414756723725605</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.02662260305944241</v>
+        <v>0.02420168198313975</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>3</v>
@@ -3930,19 +3930,19 @@
         <v>2990</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>7910</v>
+        <v>7778</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.007646811451527528</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.00241162860233525</v>
+        <v>0.002428629393244282</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.02022953677498817</v>
+        <v>0.01989199192686622</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>8</v>
@@ -3951,19 +3951,19 @@
         <v>7803</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>3826</v>
+        <v>3866</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>15377</v>
+        <v>15991</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.00952905736209924</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.004671808903663253</v>
+        <v>0.004721253113283992</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01877864651875359</v>
+        <v>0.01952779803662145</v>
       </c>
     </row>
     <row r="55">
@@ -3980,19 +3980,19 @@
         <v>13157</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>7429</v>
+        <v>7331</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>21909</v>
+        <v>22538</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.03075341540850364</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.01736390157547432</v>
+        <v>0.01713517969702561</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.05120866548473287</v>
+        <v>0.05267875915594014</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>6</v>
@@ -4001,19 +4001,19 @@
         <v>6069</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>2234</v>
+        <v>2160</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>11546</v>
+        <v>12952</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.01551920262511947</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.005712039391723565</v>
+        <v>0.005524766305768996</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.02952759829169764</v>
+        <v>0.03312314189413363</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>19</v>
@@ -4022,19 +4022,19 @@
         <v>19226</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>11526</v>
+        <v>11991</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>29892</v>
+        <v>29101</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.02347861653408222</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.01407572371918719</v>
+        <v>0.01464336585594733</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.03650461006676435</v>
+        <v>0.0355384284875187</v>
       </c>
     </row>
     <row r="56">
@@ -4051,19 +4051,19 @@
         <v>389721</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>376101</v>
+        <v>377527</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>399247</v>
+        <v>400399</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.9109155723064281</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.8790814389320516</v>
+        <v>0.8824142225818374</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.9331830465911334</v>
+        <v>0.9358754007330842</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>364</v>
@@ -4072,19 +4072,19 @@
         <v>376928</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>368454</v>
+        <v>367354</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>383074</v>
+        <v>383162</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.9639251459994371</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.9422542533286067</v>
+        <v>0.9394391592206399</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.9796410177525361</v>
+        <v>0.9798663696971841</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>736</v>
@@ -4093,19 +4093,19 @@
         <v>766649</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>751194</v>
+        <v>750751</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>778651</v>
+        <v>779012</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.9362292522791845</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.9173556518273327</v>
+        <v>0.9168150397266499</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.9508859577311636</v>
+        <v>0.9513269449957021</v>
       </c>
     </row>
     <row r="57">
@@ -4441,19 +4441,19 @@
         <v>3641</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12515</v>
+        <v>9974</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03788794471006125</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009270945030858612</v>
+        <v>0.009125792137574284</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1302457347617017</v>
+        <v>0.103798660849294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4988</v>
+        <v>4698</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01067453672363474</v>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05446546654364792</v>
+        <v>0.0512993629772907</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4483,19 +4483,19 @@
         <v>4618</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>996</v>
+        <v>918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12060</v>
+        <v>11951</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02460810154867719</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00530952419918847</v>
+        <v>0.004893629382321068</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06426293165362965</v>
+        <v>0.06368344134093643</v>
       </c>
     </row>
     <row r="5">
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5127</v>
+        <v>5810</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01702113927685755</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05335345242508819</v>
+        <v>0.06047066049825818</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5455</v>
+        <v>6205</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01284660855012603</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05956999114553065</v>
+        <v>0.06775637780833781</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -4601,19 +4601,19 @@
         <v>2812</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8118</v>
+        <v>8052</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01498401429232698</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003982891921593112</v>
+        <v>0.003940549945448023</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04325753929866765</v>
+        <v>0.04290860862841298</v>
       </c>
     </row>
     <row r="7">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6769</v>
+        <v>4436</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01133605735438253</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07391255165449198</v>
+        <v>0.04844073547283601</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5306</v>
+        <v>5274</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005531871047159589</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02827532807059174</v>
+        <v>0.02810203422213962</v>
       </c>
     </row>
     <row r="8">
@@ -4693,19 +4693,19 @@
         <v>90811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82118</v>
+        <v>84424</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>94303</v>
+        <v>94371</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9450909160130812</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8546261595799514</v>
+        <v>0.8786247180500355</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9814384073813395</v>
+        <v>0.9821400131675081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>78</v>
@@ -4714,19 +4714,19 @@
         <v>88386</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>82667</v>
+        <v>82683</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90590</v>
+        <v>90598</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9651427973718567</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9026967885786807</v>
+        <v>0.9028728185774089</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9892075462751391</v>
+        <v>0.9893035939311551</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>167</v>
@@ -4735,19 +4735,19 @@
         <v>179197</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>171541</v>
+        <v>170655</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>183931</v>
+        <v>183851</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9548760131118362</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9140826966207523</v>
+        <v>0.9093587686975334</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9801005939569251</v>
+        <v>0.9796745806004552</v>
       </c>
     </row>
     <row r="9">
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4865</v>
+        <v>4937</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006066988931591607</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03116984012284647</v>
+        <v>0.03163397120630209</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9269</v>
+        <v>8898</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01485544290203814</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07538240657955286</v>
+        <v>0.07236470847012191</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9150</v>
+        <v>11396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009939702293196741</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03279174917703385</v>
+        <v>0.04084036917595142</v>
       </c>
     </row>
     <row r="11">
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5021</v>
+        <v>5731</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008175190300218122</v>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04083681597326413</v>
+        <v>0.04660969806967766</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4957</v>
+        <v>6862</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003602473064748929</v>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01776645829719189</v>
+        <v>0.02459159860116827</v>
       </c>
     </row>
     <row r="13">
@@ -5020,19 +5020,19 @@
         <v>5285</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2047</v>
+        <v>1063</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13833</v>
+        <v>13629</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03386243774321956</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01311766324837777</v>
+        <v>0.006807809937271219</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08863092825735291</v>
+        <v>0.08731908562442826</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -5054,19 +5054,19 @@
         <v>5285</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12691</v>
+        <v>14706</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01894064199328684</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003826041092743977</v>
+        <v>0.003814103699397763</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04548137499797569</v>
+        <v>0.05270372855452893</v>
       </c>
     </row>
     <row r="14">
@@ -5083,19 +5083,19 @@
         <v>149845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>141101</v>
+        <v>141860</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>153948</v>
+        <v>154048</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9600705733251889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9040455407545883</v>
+        <v>0.9089127652705609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9863613463770797</v>
+        <v>0.9870004523281596</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>112</v>
@@ -5104,7 +5104,7 @@
         <v>120128</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112332</v>
+        <v>112659</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>122960</v>
@@ -5113,7 +5113,7 @@
         <v>0.9769693667977437</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9135648571559623</v>
+        <v>0.916226240979871</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5125,19 +5125,19 @@
         <v>269973</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>260794</v>
+        <v>259426</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>275178</v>
+        <v>275125</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9675171826487675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9346230016637007</v>
+        <v>0.9297179660738107</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9861691480806566</v>
+        <v>0.9859820510400679</v>
       </c>
     </row>
     <row r="15">
@@ -5229,19 +5229,19 @@
         <v>7841</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3886</v>
+        <v>3827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14705</v>
+        <v>14142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06557024542408957</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03249194092885399</v>
+        <v>0.0320025573781033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1229617604140061</v>
+        <v>0.1182586340518857</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -5250,19 +5250,19 @@
         <v>5067</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1898</v>
+        <v>1980</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10463</v>
+        <v>11492</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05005852236486005</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01874850502405367</v>
+        <v>0.01956330848667027</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1033655208588405</v>
+        <v>0.1135320276035613</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -5271,19 +5271,19 @@
         <v>12908</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6882</v>
+        <v>7250</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21435</v>
+        <v>20703</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05845956381363106</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03116553126018611</v>
+        <v>0.03283265871008272</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09707471984031253</v>
+        <v>0.09376184818799659</v>
       </c>
     </row>
     <row r="17">
@@ -5441,19 +5441,19 @@
         <v>111747</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>104883</v>
+        <v>105446</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>115702</v>
+        <v>115761</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9344297545759105</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.877038239585995</v>
+        <v>0.8817413659481147</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.967508059071146</v>
+        <v>0.9679974426218967</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -5462,19 +5462,19 @@
         <v>96153</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>90757</v>
+        <v>89728</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>99322</v>
+        <v>99240</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9499414776351399</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8966344791411595</v>
+        <v>0.8864679723964386</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9812514949759463</v>
+        <v>0.9804366915133298</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>200</v>
@@ -5483,19 +5483,19 @@
         <v>207899</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>199372</v>
+        <v>200104</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>213925</v>
+        <v>213557</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.941540436186369</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9029252801596882</v>
+        <v>0.9062381518120033</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9688344687398139</v>
+        <v>0.967167341289917</v>
       </c>
     </row>
     <row r="21">
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4499</v>
+        <v>4273</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009021286668482169</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04488853087109371</v>
+        <v>0.04263212003282495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4591</v>
+        <v>4483</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00423155596269476</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02148278265722484</v>
+        <v>0.02098040214390317</v>
       </c>
     </row>
     <row r="23">
@@ -5804,7 +5804,7 @@
         <v>99329</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>95734</v>
+        <v>95960</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>100233</v>
@@ -5813,7 +5813,7 @@
         <v>0.9909787133315179</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9551114691289064</v>
+        <v>0.957367879967176</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -5825,7 +5825,7 @@
         <v>212783</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>209096</v>
+        <v>209204</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>213687</v>
@@ -5834,7 +5834,7 @@
         <v>0.9957684440373052</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9785172173427752</v>
+        <v>0.9790195978560968</v>
       </c>
       <c r="W26" s="6" t="n">
         <v>1</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6327</v>
+        <v>6831</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03139520814628885</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09628975877370055</v>
+        <v>0.1039516819290947</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7008</v>
+        <v>6330</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05578046844998929</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1905646597324173</v>
+        <v>0.1721135067642933</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -5971,19 +5971,19 @@
         <v>4115</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10167</v>
+        <v>9568</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04014546420502847</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01024924123840568</v>
+        <v>0.0100056595940745</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09919780817358829</v>
+        <v>0.09335079773149976</v>
       </c>
     </row>
     <row r="29">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4827</v>
+        <v>4920</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01404161426677967</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07345657309806794</v>
+        <v>0.07487102469923139</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5218</v>
+        <v>6293</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.009003008207949598</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05091202092223942</v>
+        <v>0.06139768563492643</v>
       </c>
     </row>
     <row r="31">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3755</v>
+        <v>3783</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02427026413072869</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1020945459963994</v>
+        <v>0.1028761175222514</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4498</v>
+        <v>4467</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.008708991542931881</v>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04389111471249394</v>
+        <v>0.04358493487647137</v>
       </c>
     </row>
     <row r="32">
@@ -6173,19 +6173,19 @@
         <v>62727</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>58421</v>
+        <v>58009</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>64815</v>
+        <v>64844</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9545631775869314</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.88903094042664</v>
+        <v>0.8827560174221978</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9863372492280962</v>
+        <v>0.9867785606409707</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>33</v>
@@ -6194,19 +6194,19 @@
         <v>33833</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>28893</v>
+        <v>29381</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>35893</v>
+        <v>35889</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9199492674192821</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7856211734745906</v>
+        <v>0.7989029855524951</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9759647250610479</v>
+        <v>0.9758597553035192</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>92</v>
@@ -6215,19 +6215,19 @@
         <v>96560</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>90545</v>
+        <v>90456</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>100455</v>
+        <v>100450</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.94214253604409</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8834555210403239</v>
+        <v>0.8825842268065189</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.980141753319814</v>
+        <v>0.9800938225558867</v>
       </c>
     </row>
     <row r="33">
@@ -6319,19 +6319,19 @@
         <v>8934</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3993</v>
+        <v>3935</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>16345</v>
+        <v>15543</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08230061352997659</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03678031972354912</v>
+        <v>0.03625010794797075</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1505632245669286</v>
+        <v>0.1431760361190441</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -6340,19 +6340,19 @@
         <v>3982</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11113</v>
+        <v>12189</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.058706033650331</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.014779140947846</v>
+        <v>0.01482790014537523</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1638484258917743</v>
+        <v>0.1797154584789554</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -6361,19 +6361,19 @@
         <v>12916</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>6984</v>
+        <v>7873</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>22089</v>
+        <v>22057</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07322782451664039</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03959375824262017</v>
+        <v>0.04463326098444571</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1252342687593244</v>
+        <v>0.1250520179397862</v>
       </c>
     </row>
     <row r="35">
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5109</v>
+        <v>3906</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.008832434732320501</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04706111047802812</v>
+        <v>0.03598249535008295</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5514</v>
+        <v>4861</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005436111627218867</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03126051718950678</v>
+        <v>0.02755715208385106</v>
       </c>
     </row>
     <row r="37">
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5341</v>
+        <v>6088</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009903181668761982</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04919969147479565</v>
+        <v>0.0560760727783705</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4957</v>
+        <v>6357</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01442625454493516</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07307913551036037</v>
+        <v>0.09372711904349496</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7281</v>
+        <v>7263</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0116424322130306</v>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04127702525029449</v>
+        <v>0.04117580329909319</v>
       </c>
     </row>
     <row r="38">
@@ -6571,19 +6571,19 @@
         <v>97591</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>90170</v>
+        <v>90651</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>102760</v>
+        <v>102810</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8989637700689409</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8306080340996546</v>
+        <v>0.8350401797058199</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9465862638278136</v>
+        <v>0.9470388769747313</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>63</v>
@@ -6592,19 +6592,19 @@
         <v>62864</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>55679</v>
+        <v>55347</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>66738</v>
+        <v>65905</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9268677118047338</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8209309844137479</v>
+        <v>0.8160397821414713</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9839904117630698</v>
+        <v>0.9717076012807198</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>158</v>
@@ -6613,19 +6613,19 @@
         <v>160454</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>150421</v>
+        <v>150881</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>166613</v>
+        <v>167064</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9096936316431101</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8528078939194755</v>
+        <v>0.8554194363794624</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.944607203575775</v>
+        <v>0.9471676615554233</v>
       </c>
     </row>
     <row r="39">
@@ -6717,19 +6717,19 @@
         <v>14572</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7928</v>
+        <v>8008</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>24490</v>
+        <v>23525</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0655185672417937</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03564345448453173</v>
+        <v>0.03600584321324932</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1101103514293326</v>
+        <v>0.1057731073579732</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>20</v>
@@ -6738,19 +6738,19 @@
         <v>20404</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>13192</v>
+        <v>13055</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>29880</v>
+        <v>29975</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1127317247925944</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07288475940120752</v>
+        <v>0.07212792944846862</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1650870534498532</v>
+        <v>0.1656124736640771</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>34</v>
@@ -6759,19 +6759,19 @@
         <v>34976</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>24854</v>
+        <v>24272</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>47879</v>
+        <v>48647</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08670135256081518</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06161030880042081</v>
+        <v>0.06016743023175345</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.118686683272378</v>
+        <v>0.120589680358284</v>
       </c>
     </row>
     <row r="41">
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5150</v>
+        <v>5063</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004511608909585769</v>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02315598749323283</v>
+        <v>0.02276520035637787</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>8016</v>
+        <v>7014</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01277452745758505</v>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04428680128422675</v>
+        <v>0.03875010508921965</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -6830,19 +6830,19 @@
         <v>3316</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>8625</v>
+        <v>8848</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.008218872706176748</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.002475346233629456</v>
+        <v>0.002466942789661364</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02138079854818008</v>
+        <v>0.02193405895165787</v>
       </c>
     </row>
     <row r="42">
@@ -6862,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6412</v>
+        <v>7141</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.009263842273807716</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02882869647930125</v>
+        <v>0.03210673079984837</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6516</v>
+        <v>6242</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.005107501281274023</v>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01615322562711908</v>
+        <v>0.01547202638348988</v>
       </c>
     </row>
     <row r="43">
@@ -6922,19 +6922,19 @@
         <v>4085</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>9710</v>
+        <v>9541</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01836483650809185</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.004765672632329063</v>
+        <v>0.004631077653782486</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04365842249191541</v>
+        <v>0.0428987791761526</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1</v>
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>4502</v>
+        <v>3864</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.00523378681363426</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02487394471889057</v>
+        <v>0.02134899912130155</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>5</v>
@@ -6964,19 +6964,19 @@
         <v>5032</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1542</v>
+        <v>1949</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>10222</v>
+        <v>11885</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01247342358168866</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.003821285225851985</v>
+        <v>0.004830127661309132</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02533814124807254</v>
+        <v>0.02946185941174562</v>
       </c>
     </row>
     <row r="44">
@@ -6993,19 +6993,19 @@
         <v>200693</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>189511</v>
+        <v>191042</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>208318</v>
+        <v>209490</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9023411450667209</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8520635050030048</v>
+        <v>0.8589455852526486</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9366242139291733</v>
+        <v>0.9418934081282621</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>149</v>
@@ -7014,19 +7014,19 @@
         <v>157331</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>147188</v>
+        <v>147695</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>164780</v>
+        <v>165464</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8692599609361863</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8132222453871365</v>
+        <v>0.8160202204177234</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9104163434852967</v>
+        <v>0.9141959600626968</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>337</v>
@@ -7035,19 +7035,19 @@
         <v>358025</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>344324</v>
+        <v>342100</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>370415</v>
+        <v>369676</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8874988498700453</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8535368202790797</v>
+        <v>0.8480227481783772</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9182127710857843</v>
+        <v>0.9163795120044766</v>
       </c>
     </row>
     <row r="45">
@@ -7139,19 +7139,19 @@
         <v>42358</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>30578</v>
+        <v>31147</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>57136</v>
+        <v>56543</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1229274828115069</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.08873942770840081</v>
+        <v>0.09039095107075863</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1658123451580749</v>
+        <v>0.1640925023156036</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>40</v>
@@ -7160,19 +7160,19 @@
         <v>43318</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>32672</v>
+        <v>32236</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>58373</v>
+        <v>57640</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1234982973484933</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.09314774199520132</v>
+        <v>0.09190584791004695</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1664213706881914</v>
+        <v>0.1643306379313108</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>78</v>
@@ -7181,19 +7181,19 @@
         <v>85676</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>69737</v>
+        <v>68795</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>106072</v>
+        <v>105201</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1232154245518804</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.100293122925605</v>
+        <v>0.09893776092195711</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1525472691361541</v>
+        <v>0.1512947059310191</v>
       </c>
     </row>
     <row r="47">
@@ -7210,19 +7210,19 @@
         <v>5083</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1914</v>
+        <v>1942</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>11112</v>
+        <v>11447</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01475117744023622</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.005555432424703926</v>
+        <v>0.00563597580952013</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0322487039508858</v>
+        <v>0.03322018435491018</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4</v>
@@ -7231,19 +7231,19 @@
         <v>4123</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1020</v>
+        <v>1034</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>9865</v>
+        <v>10106</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01175383788478926</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.002908422493122202</v>
+        <v>0.002948594731280077</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.02812505228232148</v>
+        <v>0.02881244983570603</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>9</v>
@@ -7252,19 +7252,19 @@
         <v>9206</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4211</v>
+        <v>4156</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>17411</v>
+        <v>16328</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0132391991843175</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006056555569551363</v>
+        <v>0.005976697742763171</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02504010373786171</v>
+        <v>0.02348287190936705</v>
       </c>
     </row>
     <row r="48">
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4685</v>
+        <v>4763</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.002719283548620319</v>
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.01359645423578813</v>
+        <v>0.01382241819857149</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>3</v>
@@ -7302,19 +7302,19 @@
         <v>3586</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>9889</v>
+        <v>10769</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01022366486483561</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.003270803871671772</v>
+        <v>0.003271811267302962</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02819401167935425</v>
+        <v>0.0307023946171457</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>4</v>
@@ -7323,19 +7323,19 @@
         <v>4523</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>10668</v>
+        <v>10479</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.00650479438726411</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.001659654076630471</v>
+        <v>0.001649520474651986</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.01534248497802345</v>
+        <v>0.01507045411409375</v>
       </c>
     </row>
     <row r="49">
@@ -7352,19 +7352,19 @@
         <v>4452</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1122</v>
+        <v>1129</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>13946</v>
+        <v>13952</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01291955619021951</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.003256405105584951</v>
+        <v>0.003277095518504935</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04047374661371736</v>
+        <v>0.040488460118355</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>3</v>
@@ -7373,19 +7373,19 @@
         <v>3216</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>8510</v>
+        <v>9092</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.009167412918650357</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.002764695390113576</v>
+        <v>0.00277869413158226</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02426130250360803</v>
+        <v>0.02591988569977566</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>6</v>
@@ -7394,19 +7394,19 @@
         <v>7667</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>3199</v>
+        <v>3242</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>16900</v>
+        <v>18136</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.01102682467456769</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.00460095798184095</v>
+        <v>0.004661973156591891</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02430412724535092</v>
+        <v>0.02608232553447414</v>
       </c>
     </row>
     <row r="50">
@@ -7423,19 +7423,19 @@
         <v>291751</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>277316</v>
+        <v>276489</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>305466</v>
+        <v>304980</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.846682500009417</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.804790998970211</v>
+        <v>0.8023924698902426</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.8864854057971904</v>
+        <v>0.8850761490780388</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>269</v>
@@ -7444,19 +7444,19 @@
         <v>296513</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>281957</v>
+        <v>281702</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>309319</v>
+        <v>309079</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.8453567869832315</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8038584703599894</v>
+        <v>0.8031294695300435</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8818654764229561</v>
+        <v>0.8811823089235806</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>538</v>
@@ -7465,19 +7465,19 @@
         <v>588264</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>566766</v>
+        <v>567902</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>607208</v>
+        <v>606860</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.8460137572019703</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8150962605984809</v>
+        <v>0.8167303294881965</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.8732589688108304</v>
+        <v>0.8727574866326736</v>
       </c>
     </row>
     <row r="51">
@@ -7569,19 +7569,19 @@
         <v>80357</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>64898</v>
+        <v>61612</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>101978</v>
+        <v>98556</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.06551884273136085</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.05291398600658467</v>
+        <v>0.05023520865969034</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.08314767274659181</v>
+        <v>0.08035732838446691</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>73</v>
@@ -7590,19 +7590,19 @@
         <v>78530</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>60899</v>
+        <v>62718</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>97282</v>
+        <v>95829</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.07462396305842318</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.05786953161475257</v>
+        <v>0.05959807051444795</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.09244330158874044</v>
+        <v>0.09106208879368921</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>148</v>
@@ -7611,19 +7611,19 @@
         <v>158887</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>136528</v>
+        <v>134824</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>190099</v>
+        <v>183714</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.06972353022682017</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.0599117112771676</v>
+        <v>0.05916403336359499</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08341999248367915</v>
+        <v>0.08061840884123092</v>
       </c>
     </row>
     <row r="53">
@@ -7640,19 +7640,19 @@
         <v>6086</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2899</v>
+        <v>2079</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>11515</v>
+        <v>13170</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.004962538580359825</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.002363995064791723</v>
+        <v>0.001695122846649928</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.009388404642668871</v>
+        <v>0.01073829887625942</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>6</v>
@@ -7661,19 +7661,19 @@
         <v>6435</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>2135</v>
+        <v>2262</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>13117</v>
+        <v>13420</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.006114778346925754</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.002028679379643213</v>
+        <v>0.002149467370627529</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01246480233379095</v>
+        <v>0.0127524252756719</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>12</v>
@@ -7682,19 +7682,19 @@
         <v>12521</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>6958</v>
+        <v>6519</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>21170</v>
+        <v>20704</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.005494635682234573</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.003053485391927069</v>
+        <v>0.002860663638163225</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.009289773011091238</v>
+        <v>0.009085407642575366</v>
       </c>
     </row>
     <row r="54">
@@ -7711,19 +7711,19 @@
         <v>6514</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2707</v>
+        <v>2768</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>12039</v>
+        <v>12878</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.00531156100883426</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.002206959507577874</v>
+        <v>0.002257247738734132</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.009815606715071376</v>
+        <v>0.01049995915500675</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>5</v>
@@ -7732,19 +7732,19 @@
         <v>5768</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>2279</v>
+        <v>2165</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>12936</v>
+        <v>12975</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.005480823211963743</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.002166080119009281</v>
+        <v>0.0020569756656517</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.01229242571301678</v>
+        <v>0.01232933620980506</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>12</v>
@@ -7753,19 +7753,19 @@
         <v>12282</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>6392</v>
+        <v>6678</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>21037</v>
+        <v>20842</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.005389725233291253</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.002805064595597091</v>
+        <v>0.002930262753035009</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.00923161742515782</v>
+        <v>0.009146008135811253</v>
       </c>
     </row>
     <row r="55">
@@ -7782,19 +7782,19 @@
         <v>14897</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>8048</v>
+        <v>7478</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>27029</v>
+        <v>26676</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.01214593269689875</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.006562201081806583</v>
+        <v>0.006096958767423942</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.02203811504310921</v>
+        <v>0.02175013808866134</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>7</v>
@@ -7803,19 +7803,19 @@
         <v>7072</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>3047</v>
+        <v>2970</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>14202</v>
+        <v>13692</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.006720228265837775</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.002895750168425755</v>
+        <v>0.002821865877333055</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.01349541315744279</v>
+        <v>0.01301052988888111</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>19</v>
@@ -7824,19 +7824,19 @@
         <v>21969</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>13614</v>
+        <v>13437</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>34014</v>
+        <v>35215</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.009640376399357675</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.005974228803527918</v>
+        <v>0.005896655939535637</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.01492638199066482</v>
+        <v>0.01545316967601476</v>
       </c>
     </row>
     <row r="56">
@@ -7853,19 +7853,19 @@
         <v>1118618</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1096109</v>
+        <v>1095885</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>1138239</v>
+        <v>1137873</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.9120611249825463</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.893708119603464</v>
+        <v>0.8935253465813056</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.9280589205333239</v>
+        <v>0.9277600359724718</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>884</v>
@@ -7874,19 +7874,19 @@
         <v>954538</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>934786</v>
+        <v>933661</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>974824</v>
+        <v>972901</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.9070602071168495</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.8882904087192327</v>
+        <v>0.887221625131665</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.9263364589341812</v>
+        <v>0.9245092298648576</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1944</v>
@@ -7895,19 +7895,19 @@
         <v>2073156</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2042317</v>
+        <v>2045050</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>2099850</v>
+        <v>2099836</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.9097517324582963</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.8962189898723224</v>
+        <v>0.8974181633475883</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.9214656095221627</v>
+        <v>0.9214594224951131</v>
       </c>
     </row>
     <row r="57">
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3496</v>
+        <v>4004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01150534427216897</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05068699557409212</v>
+        <v>0.05805551242040261</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -8264,19 +8264,19 @@
         <v>2817</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7619</v>
+        <v>8349</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05312975057196341</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01506043119235149</v>
+        <v>0.01534794862948366</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1436804137446633</v>
+        <v>0.1574429169646021</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -8285,19 +8285,19 @@
         <v>3611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>876</v>
+        <v>1085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8043</v>
+        <v>9337</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02959750224453247</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007182178648424921</v>
+        <v>0.008895617991399303</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06592792784713769</v>
+        <v>0.07653207392291812</v>
       </c>
     </row>
     <row r="5">
@@ -8361,19 +8361,19 @@
         <v>3019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8003</v>
+        <v>8879</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04377503989044388</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01348756130514303</v>
+        <v>0.01356847344286745</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1160280348899734</v>
+        <v>0.1287315744827984</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -8395,19 +8395,19 @@
         <v>3019</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>0</v>
+        <v>937</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7968</v>
+        <v>8342</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02474810335613623</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0</v>
+        <v>0.007680692652749643</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06531336667696105</v>
+        <v>0.06837164724970417</v>
       </c>
     </row>
     <row r="7">
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5011</v>
+        <v>4976</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01425589329369189</v>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07264879099531152</v>
+        <v>0.07213591640941236</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8103</v>
+        <v>8225</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04626217851864984</v>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1528072569401129</v>
+        <v>0.1550937400535926</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -8466,19 +8466,19 @@
         <v>3437</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8664</v>
+        <v>9379</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02816750957544346</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007186675247211595</v>
+        <v>0.007299527066660802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07101628825640054</v>
+        <v>0.07687162484849495</v>
       </c>
     </row>
     <row r="8">
@@ -8495,19 +8495,19 @@
         <v>64179</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58476</v>
+        <v>58308</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67163</v>
+        <v>67138</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9304637225436952</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8477917052108799</v>
+        <v>0.8453465454279447</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9737233601929236</v>
+        <v>0.9733687027446393</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -8516,19 +8516,19 @@
         <v>47759</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41674</v>
+        <v>42139</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51257</v>
+        <v>51336</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9006080709093868</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7858522773420294</v>
+        <v>0.7946200768311255</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9665619679276392</v>
+        <v>0.9680516349619549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>105</v>
@@ -8537,19 +8537,19 @@
         <v>111937</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>104846</v>
+        <v>103433</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>117299</v>
+        <v>116446</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9174868848238878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8593669572359135</v>
+        <v>0.8477869627077217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.961439529130275</v>
+        <v>0.954440206938803</v>
       </c>
     </row>
     <row r="9">
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6924</v>
+        <v>7819</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01702572490325793</v>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06010982828276223</v>
+        <v>0.06787726989795098</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -8678,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6034</v>
+        <v>7499</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007030928765862656</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02163257826307463</v>
+        <v>0.02688454842309116</v>
       </c>
     </row>
     <row r="11">
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6416</v>
+        <v>5688</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006913413175648353</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03917932230421919</v>
+        <v>0.03473524669524064</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -8741,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5650</v>
+        <v>6273</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004058455995078693</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0202533586961162</v>
+        <v>0.02248951469735792</v>
       </c>
     </row>
     <row r="12">
@@ -8767,19 +8767,19 @@
         <v>3143</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8385</v>
+        <v>8320</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01919310034138251</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.006122008778987292</v>
+        <v>0.006167868310874721</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05120216938789995</v>
+        <v>0.05080600747020175</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -8801,19 +8801,19 @@
         <v>3143</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9307</v>
+        <v>8468</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01126713407192326</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003618449739672116</v>
+        <v>0.003645094812554449</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03336396984813993</v>
+        <v>0.0303561934798356</v>
       </c>
     </row>
     <row r="13">
@@ -8833,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6156</v>
+        <v>4711</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006315276183341246</v>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03759500148810165</v>
+        <v>0.02876794240861622</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4947</v>
+        <v>4920</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00854850907616045</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04294711090925833</v>
+        <v>0.04270933412127576</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7054</v>
+        <v>6108</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007237510124992015</v>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02528653792473331</v>
+        <v>0.02189486677357676</v>
       </c>
     </row>
     <row r="14">
@@ -8901,19 +8901,19 @@
         <v>158445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152815</v>
+        <v>151973</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>161696</v>
+        <v>161699</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9675782102996279</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.933200909354471</v>
+        <v>0.9280552324198589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9874333357855132</v>
+        <v>0.9874500922277132</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>110</v>
@@ -8922,19 +8922,19 @@
         <v>112248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>107616</v>
+        <v>106432</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114226</v>
+        <v>114230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9744257660205816</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9342187944255</v>
+        <v>0.9239411862914128</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9915924489870273</v>
+        <v>0.9916297779907539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>259</v>
@@ -8943,19 +8943,19 @@
         <v>270694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>263338</v>
+        <v>263361</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>274954</v>
+        <v>274862</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9704059710421433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9440379646296149</v>
+        <v>0.9441188227930345</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9856800465797855</v>
+        <v>0.9853471563857159</v>
       </c>
     </row>
     <row r="15">
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4345</v>
+        <v>4300</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009378158473150267</v>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04710106501464298</v>
+        <v>0.04661044014437293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4733</v>
+        <v>4497</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01054466960536216</v>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05642923361187441</v>
+        <v>0.05361651296021582</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6109</v>
+        <v>6151</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009933674690658353</v>
@@ -9101,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03468357848627587</v>
+        <v>0.0349235332707038</v>
       </c>
     </row>
     <row r="17">
@@ -9259,7 +9259,7 @@
         <v>91384</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87904</v>
+        <v>87949</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>92249</v>
@@ -9268,7 +9268,7 @@
         <v>0.9906218415268497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9528989349853569</v>
+        <v>0.953389559855627</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -9280,7 +9280,7 @@
         <v>82989</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>79140</v>
+        <v>79376</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>83873</v>
@@ -9289,7 +9289,7 @@
         <v>0.9894553303946378</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9435707663881241</v>
+        <v>0.946383487039784</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -9301,7 +9301,7 @@
         <v>174372</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>170013</v>
+        <v>169971</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>176122</v>
@@ -9310,7 +9310,7 @@
         <v>0.9900663253093417</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9653164215137241</v>
+        <v>0.9650764667292961</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -9408,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6337</v>
+        <v>6350</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02341055714280631</v>
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08258207390407427</v>
+        <v>0.08275580469067982</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5743</v>
+        <v>6311</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01224557088744254</v>
@@ -9451,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03915294334335125</v>
+        <v>0.04302271223206691</v>
       </c>
     </row>
     <row r="23">
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4036</v>
+        <v>6460</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01170527857140316</v>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05259461125245671</v>
+        <v>0.08418814938695231</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4149</v>
+        <v>4532</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006122785443721269</v>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02828172462318368</v>
+        <v>0.03089829480184662</v>
       </c>
     </row>
     <row r="26">
@@ -9625,19 +9625,19 @@
         <v>74036</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69217</v>
+        <v>69246</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75849</v>
+        <v>75868</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9648841642857905</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9020795467330173</v>
+        <v>0.9024623272156047</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9885235526674847</v>
+        <v>0.9887637091454518</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -9659,19 +9659,19 @@
         <v>143995</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>139433</v>
+        <v>139449</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>145804</v>
+        <v>145811</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9816316436688362</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9505357824268045</v>
+        <v>0.9506424288644643</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9939643671526153</v>
+        <v>0.9940133150222955</v>
       </c>
     </row>
     <row r="27">
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6174</v>
+        <v>6100</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07559523569620297</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2360693729375036</v>
+        <v>0.2332557613229983</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -9784,19 +9784,19 @@
         <v>4004</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8534</v>
+        <v>8725</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.151240274329248</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0431264755789821</v>
+        <v>0.04331973679703364</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3223328599242976</v>
+        <v>0.329572871744313</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -9805,19 +9805,19 @@
         <v>5981</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2106</v>
+        <v>2426</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11353</v>
+        <v>11541</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1136489942470735</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04001150065923911</v>
+        <v>0.04609589152826601</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2157306901555926</v>
+        <v>0.2192985404917834</v>
       </c>
     </row>
     <row r="29">
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5637</v>
+        <v>5354</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03975678364917539</v>
@@ -9859,7 +9859,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2129044230153467</v>
+        <v>0.2022387842578263</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5920</v>
+        <v>6173</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01999992429224592</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1124910594722082</v>
+        <v>0.1173042007604732</v>
       </c>
     </row>
     <row r="30">
@@ -9991,7 +9991,7 @@
         <v>24176</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19979</v>
+        <v>20053</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>26153</v>
@@ -10000,7 +10000,7 @@
         <v>0.924404764303797</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7639306270624964</v>
+        <v>0.7667442386770015</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -10012,19 +10012,19 @@
         <v>21418</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16432</v>
+        <v>17023</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24554</v>
+        <v>24491</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8090029420215765</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6206582134275772</v>
+        <v>0.6429922140729688</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9274335306861732</v>
+        <v>0.9250505530409963</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>47</v>
@@ -10033,19 +10033,19 @@
         <v>45594</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>39477</v>
+        <v>39516</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>49641</v>
+        <v>49587</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8663510814606805</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7501052725833036</v>
+        <v>0.7508524700410146</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.943242611626034</v>
+        <v>0.9422209080838514</v>
       </c>
     </row>
     <row r="33">
@@ -10150,19 +10150,19 @@
         <v>2898</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>924</v>
+        <v>933</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7928</v>
+        <v>7854</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08423178975590755</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02685529000539215</v>
+        <v>0.02712344432731154</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2304467102648432</v>
+        <v>0.2283016019840363</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -10171,19 +10171,19 @@
         <v>2898</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6919</v>
+        <v>7755</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03931499641253484</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01252524540639781</v>
+        <v>0.01261005775128595</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09387042102587331</v>
+        <v>0.1052061033111831</v>
       </c>
     </row>
     <row r="35">
@@ -10354,19 +10354,19 @@
         <v>31505</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>26475</v>
+        <v>26549</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>33479</v>
+        <v>33470</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9157682102440925</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7695532897351567</v>
+        <v>0.771698398015964</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9731447099946079</v>
+        <v>0.9728765556726885</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>71</v>
@@ -10375,19 +10375,19 @@
         <v>70810</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>66789</v>
+        <v>65953</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>72785</v>
+        <v>72779</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9606850035874651</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9061295789741269</v>
+        <v>0.8947938966888168</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9874747545936022</v>
+        <v>0.9873899422487141</v>
       </c>
     </row>
     <row r="39">
@@ -10495,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5384</v>
+        <v>4979</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003896611832319328</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02085979260379889</v>
+        <v>0.01929018737537216</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5041</v>
+        <v>5017</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001844055331447902</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.009242066301857164</v>
+        <v>0.009198946799825275</v>
       </c>
     </row>
     <row r="41">
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7737</v>
+        <v>6538</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.007556885545390115</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02692971439908666</v>
+        <v>0.02275882975555327</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -10579,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6613</v>
+        <v>7526</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00398062091375918</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01212417358558106</v>
+        <v>0.0137992690844462</v>
       </c>
     </row>
     <row r="42">
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6577</v>
+        <v>7350</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.00731637495798791</v>
@@ -10617,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02289471752020224</v>
+        <v>0.02558311827657181</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>7427</v>
+        <v>7315</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.003853930960809218</v>
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01361735220828869</v>
+        <v>0.01341252981549812</v>
       </c>
     </row>
     <row r="43">
@@ -10668,19 +10668,19 @@
         <v>11894</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>6287</v>
+        <v>5961</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>21965</v>
+        <v>21276</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04139860808625957</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0218838569140533</v>
+        <v>0.02074850608782217</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07645487791720662</v>
+        <v>0.07405774445049955</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>10</v>
@@ -10689,19 +10689,19 @@
         <v>10076</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>5268</v>
+        <v>5188</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>18074</v>
+        <v>17839</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03903934644428778</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.02041098172674042</v>
+        <v>0.02009939187022435</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.07002302915816003</v>
+        <v>0.06911513817225817</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>20</v>
@@ -10710,19 +10710,19 @@
         <v>21970</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>14070</v>
+        <v>13612</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>33165</v>
+        <v>32748</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.04028209733374537</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02579826220642144</v>
+        <v>0.02495835589549338</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06080854288404916</v>
+        <v>0.06004400173783449</v>
       </c>
     </row>
     <row r="44">
@@ -10739,19 +10739,19 @@
         <v>271126</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>260509</v>
+        <v>261855</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>277689</v>
+        <v>278247</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9437281314103624</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9067726344254352</v>
+        <v>0.911455616835928</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9665722340215391</v>
+        <v>0.9685140676121795</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>238</v>
@@ -10760,19 +10760,19 @@
         <v>247028</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>238789</v>
+        <v>238901</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>252118</v>
+        <v>251945</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9570640417233929</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.925145705962801</v>
+        <v>0.9255774782680701</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9767864656275578</v>
+        <v>0.9761167074146344</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>470</v>
@@ -10781,19 +10781,19 @@
         <v>518154</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>506823</v>
+        <v>506472</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>527586</v>
+        <v>527668</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9500392954602384</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9292638236781107</v>
+        <v>0.9286188872482932</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9673331726464731</v>
+        <v>0.9674824107784216</v>
       </c>
     </row>
     <row r="45">
@@ -10885,19 +10885,19 @@
         <v>9271</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4748</v>
+        <v>4530</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>16104</v>
+        <v>16337</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.05793039318134702</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02966761175893559</v>
+        <v>0.02830620716798686</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1006283300347339</v>
+        <v>0.1020849501016434</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>6</v>
@@ -10906,19 +10906,19 @@
         <v>6224</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2408</v>
+        <v>2219</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>12428</v>
+        <v>12643</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.04241552272083789</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01640864092910683</v>
+        <v>0.01512389927477491</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08469204623854742</v>
+        <v>0.08615454959858564</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>15</v>
@@ -10927,19 +10927,19 @@
         <v>15495</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>9123</v>
+        <v>9158</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>24465</v>
+        <v>24861</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.05050878776536191</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02973805833025357</v>
+        <v>0.02985120512672757</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.07974806415415649</v>
+        <v>0.08103975463866867</v>
       </c>
     </row>
     <row r="47">
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>7480</v>
+        <v>6632</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01420985543547728</v>
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05097357306374859</v>
+        <v>0.04519118246444953</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>2</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>7175</v>
+        <v>7014</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.006797345832099386</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02338924070275362</v>
+        <v>0.02286195755943573</v>
       </c>
     </row>
     <row r="48">
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>4942</v>
+        <v>4575</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.005754146461538743</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.0308815512195087</v>
+        <v>0.02858768103960096</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>0</v>
@@ -11103,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>5052</v>
+        <v>5345</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.00300162560407964</v>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01646632741573173</v>
+        <v>0.01742398827355694</v>
       </c>
     </row>
     <row r="50">
@@ -11129,19 +11129,19 @@
         <v>149839</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>142460</v>
+        <v>142807</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>154757</v>
+        <v>154680</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9363154603571142</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8902079024418389</v>
+        <v>0.8923773490601378</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9670505526296962</v>
+        <v>0.9665710512474716</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>129</v>
@@ -11150,19 +11150,19 @@
         <v>138439</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>131639</v>
+        <v>131579</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>142681</v>
+        <v>142713</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9433746218436848</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8970357850635453</v>
+        <v>0.8966229562781981</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9722782643428347</v>
+        <v>0.9724996404642005</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>274</v>
@@ -11171,19 +11171,19 @@
         <v>288278</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>278193</v>
+        <v>278292</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>294965</v>
+        <v>295018</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.939692240798459</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.9068197006650751</v>
+        <v>0.9071410489253174</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9614892041058998</v>
+        <v>0.9616618599375724</v>
       </c>
     </row>
     <row r="51">
@@ -11275,19 +11275,19 @@
         <v>14703</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>8581</v>
+        <v>8371</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>23355</v>
+        <v>24616</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01607745483341459</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.009382941421316571</v>
+        <v>0.009154262665777546</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02553920665527512</v>
+        <v>0.0269181008553952</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>20</v>
@@ -11296,19 +11296,19 @@
         <v>19795</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>12571</v>
+        <v>12712</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>30239</v>
+        <v>31842</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.02512745956752934</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01595727952073083</v>
+        <v>0.01613630317624098</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.03838400426542597</v>
+        <v>0.04041913087447328</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>35</v>
@@ -11317,19 +11317,19 @@
         <v>34498</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>24405</v>
+        <v>24919</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>46369</v>
+        <v>48395</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02026567164058536</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.01433662397550021</v>
+        <v>0.0146387646450596</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02723923868663581</v>
+        <v>0.02842940445642232</v>
       </c>
     </row>
     <row r="53">
@@ -11346,19 +11346,19 @@
         <v>3303</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>9859</v>
+        <v>8958</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.003612006750138513</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.001148523975633267</v>
+        <v>0.001146011988096151</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01078050294770548</v>
+        <v>0.009795742289538271</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>3</v>
@@ -11367,19 +11367,19 @@
         <v>3138</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>8261</v>
+        <v>8410</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.003983087227987888</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.001267708181285051</v>
+        <v>0.001267022928671072</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.01048592207063676</v>
+        <v>0.01067490149586961</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>6</v>
@@ -11388,19 +11388,19 @@
         <v>6441</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>2247</v>
+        <v>2205</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>12919</v>
+        <v>14040</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.003783737654132757</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.001319883577649349</v>
+        <v>0.00129512676690558</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.007589511673920054</v>
+        <v>0.008247896192809427</v>
       </c>
     </row>
     <row r="54">
@@ -11417,19 +11417,19 @@
         <v>8264</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4063</v>
+        <v>4070</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>15429</v>
+        <v>16535</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.009037036164799003</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.004442568338353579</v>
+        <v>0.004450746026209327</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01687117885905221</v>
+        <v>0.01808086919783664</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>0</v>
@@ -11451,19 +11451,19 @@
         <v>8264</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>4034</v>
+        <v>4061</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>15439</v>
+        <v>15661</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.004854821031833822</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.002369896337188996</v>
+        <v>0.002385747918279465</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.009069475045596215</v>
+        <v>0.009200206275182875</v>
       </c>
     </row>
     <row r="55">
@@ -11480,19 +11480,19 @@
         <v>15730</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>8800</v>
+        <v>8465</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>25988</v>
+        <v>25622</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.0172008199952493</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.009622895990424698</v>
+        <v>0.009256219572602125</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.02841748010766924</v>
+        <v>0.02801780941593636</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>13</v>
@@ -11501,19 +11501,19 @@
         <v>13514</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>7379</v>
+        <v>7362</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>22879</v>
+        <v>21434</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.01715480856874932</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.009366168106409981</v>
+        <v>0.009344708544005632</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.02904175137508802</v>
+        <v>0.02720793947329427</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>27</v>
@@ -11522,19 +11522,19 @@
         <v>29244</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>20450</v>
+        <v>20278</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>41793</v>
+        <v>43885</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.01717952654453289</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.01201331062896515</v>
+        <v>0.01191233471286872</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.02455104679050973</v>
+        <v>0.02577999827261414</v>
       </c>
     </row>
     <row r="56">
@@ -11551,19 +11551,19 @@
         <v>872490</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>858413</v>
+        <v>857498</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>883643</v>
+        <v>883776</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.9540726822563986</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.9386794844742131</v>
+        <v>0.9376790707506902</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.9662682549637729</v>
+        <v>0.9664142737352484</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>735</v>
@@ -11572,19 +11572,19 @@
         <v>751345</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>738182</v>
+        <v>738571</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>761700</v>
+        <v>762707</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.9537346446357334</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.9370259517213528</v>
+        <v>0.9375187956211957</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.9668779280474794</v>
+        <v>0.9681561589165276</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1546</v>
@@ -11593,19 +11593,19 @@
         <v>1623834</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1604581</v>
+        <v>1603583</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1638593</v>
+        <v>1639275</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.9539162431289152</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.9426060121706534</v>
+        <v>0.9420193060005052</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.9625861022457696</v>
+        <v>0.9629864625735507</v>
       </c>
     </row>
     <row r="57">
